--- a/data/results/FTSE_without_penny_stocks_stat_counts.xlsx
+++ b/data/results/FTSE_without_penny_stocks_stat_counts.xlsx
@@ -393,36 +393,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
       <c r="F2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -433,22 +433,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
         <v>10</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -483,62 +483,62 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>6</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
         <v>2</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +573,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
